--- a/COM/COM_Application/COM_WindApplication/bin/Debug/newdoc/20231204.xlsx
+++ b/COM/COM_Application/COM_WindApplication/bin/Debug/newdoc/20231204.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="14355" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="14895"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Страна</t>
   </si>
@@ -24,16 +24,22 @@
     <t>Город</t>
   </si>
   <si>
+    <t>Январь</t>
+  </si>
+  <si>
+    <t>Февраль</t>
+  </si>
+  <si>
+    <t>Май</t>
+  </si>
+  <si>
     <t>Средняя температура</t>
   </si>
   <si>
     <t>Россия</t>
   </si>
   <si>
-    <t>Москва</t>
-  </si>
-  <si>
-    <t>Февраль</t>
+    <t>Новосибирск</t>
   </si>
 </sst>
 </file>
@@ -70,8 +76,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -366,37 +375,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2">
+        <f>AVERAGE(C2:D2)</f>
         <v>3</v>
       </c>
     </row>

--- a/COM/COM_Application/COM_WindApplication/bin/Debug/newdoc/20231204.xlsx
+++ b/COM/COM_Application/COM_WindApplication/bin/Debug/newdoc/20231204.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Страна</t>
   </si>
@@ -24,13 +24,7 @@
     <t>Город</t>
   </si>
   <si>
-    <t>Январь</t>
-  </si>
-  <si>
-    <t>Февраль</t>
-  </si>
-  <si>
-    <t>Май</t>
+    <t>Апрель</t>
   </si>
   <si>
     <t>Средняя температура</t>
@@ -39,7 +33,7 @@
     <t>Россия</t>
   </si>
   <si>
-    <t>Новосибирск</t>
+    <t>Москва</t>
   </si>
 </sst>
 </file>
@@ -382,10 +376,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -399,32 +392,28 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <f>AVERAGE(C2:D2)</f>
-        <v>3</v>
+        <f ca="1">AVERAGE(C2:D2:E2)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
